--- a/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/04 Rest of the matches.xlsx
+++ b/05 Analysis/01 Main/01 Stata/01 Main/01 Data load/02 Combine/_aux/04 Rest of the matches.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20793" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55257" uniqueCount="519">
   <si>
     <t>small_dataset_name</t>
   </si>
@@ -1481,6 +1481,102 @@
   </si>
   <si>
     <t>Wing Aviation LLC</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
+  </si>
+  <si>
+    <t>AÃ¢ÂÂ
+T COMMUNICATIONS CO., LTD.</t>
   </si>
   <si>
     <t>AÃ¢ÂÂ
@@ -6424,10 +6520,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6" s="1">
         <v>1.0000000000000002</v>
@@ -6439,10 +6535,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1">
         <v>1.0000000000000002</v>
@@ -6451,13 +6547,13 @@
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -6466,13 +6562,13 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -6481,13 +6577,13 @@
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -6496,13 +6592,13 @@
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -6511,13 +6607,13 @@
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -6526,13 +6622,13 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -6541,13 +6637,13 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -6556,13 +6652,13 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -6571,13 +6667,13 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -6586,13 +6682,13 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -6601,13 +6697,13 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -6616,13 +6712,13 @@
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -6631,13 +6727,13 @@
     </row>
     <row r="20">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -6646,13 +6742,13 @@
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -6661,13 +6757,13 @@
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -6676,13 +6772,13 @@
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -6691,13 +6787,13 @@
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -6706,13 +6802,13 @@
     </row>
     <row r="25">
       <c r="B25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -6721,13 +6817,13 @@
     </row>
     <row r="26">
       <c r="B26" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -6736,13 +6832,13 @@
     </row>
     <row r="27">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -6751,13 +6847,13 @@
     </row>
     <row r="28">
       <c r="B28" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
         <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -6766,13 +6862,13 @@
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -6781,13 +6877,13 @@
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -6796,13 +6892,13 @@
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -6811,13 +6907,13 @@
     </row>
     <row r="32">
       <c r="B32" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -6826,13 +6922,13 @@
     </row>
     <row r="33">
       <c r="B33" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -6841,13 +6937,13 @@
     </row>
     <row r="34">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -6856,13 +6952,13 @@
     </row>
     <row r="35">
       <c r="B35" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -6871,13 +6967,13 @@
     </row>
     <row r="36">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -6886,13 +6982,13 @@
     </row>
     <row r="37">
       <c r="B37" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -6901,13 +6997,13 @@
     </row>
     <row r="38">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -6916,13 +7012,13 @@
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -6931,13 +7027,13 @@
     </row>
     <row r="40">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -6946,13 +7042,13 @@
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -6961,13 +7057,13 @@
     </row>
     <row r="42">
       <c r="B42" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -6976,13 +7072,13 @@
     </row>
     <row r="43">
       <c r="B43" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -6991,13 +7087,13 @@
     </row>
     <row r="44">
       <c r="B44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -7006,13 +7102,13 @@
     </row>
     <row r="45">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -7021,13 +7117,13 @@
     </row>
     <row r="46">
       <c r="B46" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -7036,13 +7132,13 @@
     </row>
     <row r="47">
       <c r="B47" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
         <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -7051,13 +7147,13 @@
     </row>
     <row r="48">
       <c r="B48" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -7066,13 +7162,13 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>177</v>
       </c>
       <c r="D49" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -7081,13 +7177,13 @@
     </row>
     <row r="50">
       <c r="B50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
         <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -7096,13 +7192,13 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -7111,13 +7207,13 @@
     </row>
     <row r="52">
       <c r="B52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -7126,13 +7222,13 @@
     </row>
     <row r="53">
       <c r="B53" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -7141,13 +7237,13 @@
     </row>
     <row r="54">
       <c r="B54" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -7156,13 +7252,13 @@
     </row>
     <row r="55">
       <c r="B55" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
         <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -7171,13 +7267,13 @@
     </row>
     <row r="56">
       <c r="B56" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -7186,13 +7282,13 @@
     </row>
     <row r="57">
       <c r="B57" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -7201,13 +7297,13 @@
     </row>
     <row r="58">
       <c r="B58" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -7216,13 +7312,13 @@
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -7231,13 +7327,13 @@
     </row>
     <row r="60">
       <c r="B60" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
         <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -7246,13 +7342,13 @@
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -7261,13 +7357,13 @@
     </row>
     <row r="62">
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -7276,13 +7372,13 @@
     </row>
     <row r="63">
       <c r="B63" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -7291,13 +7387,13 @@
     </row>
     <row r="64">
       <c r="B64" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -7306,13 +7402,13 @@
     </row>
     <row r="65">
       <c r="B65" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -7321,13 +7417,13 @@
     </row>
     <row r="66">
       <c r="B66" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -7336,13 +7432,13 @@
     </row>
     <row r="67">
       <c r="B67" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -7351,13 +7447,13 @@
     </row>
     <row r="68">
       <c r="B68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -7366,13 +7462,13 @@
     </row>
     <row r="69">
       <c r="B69" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C69" t="s">
         <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -7381,13 +7477,13 @@
     </row>
     <row r="70">
       <c r="B70" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
@@ -7396,13 +7492,13 @@
     </row>
     <row r="71">
       <c r="B71" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
         <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="E71" s="1">
         <v>1</v>
@@ -7411,13 +7507,13 @@
     </row>
     <row r="72">
       <c r="B72" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
         <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -7426,13 +7522,13 @@
     </row>
     <row r="73">
       <c r="B73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -7441,13 +7537,13 @@
     </row>
     <row r="74">
       <c r="B74" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -7456,13 +7552,13 @@
     </row>
     <row r="75">
       <c r="B75" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
         <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -7471,13 +7567,13 @@
     </row>
     <row r="76">
       <c r="B76" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -7486,13 +7582,13 @@
     </row>
     <row r="77">
       <c r="B77" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -7501,13 +7597,13 @@
     </row>
     <row r="78">
       <c r="B78" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -7516,13 +7612,13 @@
     </row>
     <row r="79">
       <c r="B79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -7531,13 +7627,13 @@
     </row>
     <row r="80">
       <c r="B80" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -7546,13 +7642,13 @@
     </row>
     <row r="81">
       <c r="B81" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C81" t="s">
         <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -7561,13 +7657,13 @@
     </row>
     <row r="82">
       <c r="B82" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -7576,13 +7672,13 @@
     </row>
     <row r="83">
       <c r="B83" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -7591,13 +7687,13 @@
     </row>
     <row r="84">
       <c r="B84" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
         <v>177</v>
       </c>
       <c r="D84" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -7606,13 +7702,13 @@
     </row>
     <row r="85">
       <c r="B85" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -7621,13 +7717,13 @@
     </row>
     <row r="86">
       <c r="B86" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -7636,13 +7732,13 @@
     </row>
     <row r="87">
       <c r="B87" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -7651,13 +7747,13 @@
     </row>
     <row r="88">
       <c r="B88" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D88" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -7666,13 +7762,13 @@
     </row>
     <row r="89">
       <c r="B89" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D89" t="s">
-        <v>494</v>
+        <v>210</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -7681,13 +7777,13 @@
     </row>
     <row r="90">
       <c r="B90" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>202</v>
+        <v>518</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -7696,7 +7792,7 @@
     </row>
     <row r="91">
       <c r="B91" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
         <v>177</v>
@@ -7759,7 +7855,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D95" t="s">
         <v>252</v>
@@ -7849,7 +7945,7 @@
         <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D101" t="s">
         <v>258</v>
@@ -8116,13 +8212,13 @@
     </row>
     <row r="119">
       <c r="B119" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C119" t="s">
         <v>177</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E119" s="1">
         <v>0.95971550445604947</v>
@@ -8131,13 +8227,13 @@
     </row>
     <row r="120">
       <c r="B120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" t="s">
         <v>177</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E120" s="1">
         <v>0.95971550445604947</v>
@@ -8146,13 +8242,13 @@
     </row>
     <row r="121">
       <c r="B121" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C121" t="s">
         <v>177</v>
       </c>
       <c r="D121" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E121" s="1">
         <v>0.95971550445604947</v>
@@ -8161,13 +8257,13 @@
     </row>
     <row r="122">
       <c r="B122" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C122" t="s">
         <v>177</v>
       </c>
       <c r="D122" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E122" s="1">
         <v>0.95971550445604947</v>
@@ -8194,7 +8290,7 @@
         <v>94</v>
       </c>
       <c r="C124" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D124" t="s">
         <v>280</v>
@@ -8296,7 +8392,7 @@
     </row>
     <row r="131">
       <c r="B131" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C131" t="s">
         <v>176</v>
@@ -8311,7 +8407,7 @@
     </row>
     <row r="132">
       <c r="B132" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C132" t="s">
         <v>176</v>
@@ -8326,7 +8422,7 @@
     </row>
     <row r="133">
       <c r="B133" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
         <v>176</v>
@@ -8341,13 +8437,13 @@
     </row>
     <row r="134">
       <c r="B134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" t="s">
         <v>177</v>
       </c>
       <c r="D134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E134" s="1">
         <v>0.94774922781193394</v>
@@ -8356,13 +8452,13 @@
     </row>
     <row r="135">
       <c r="B135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C135" t="s">
         <v>177</v>
       </c>
       <c r="D135" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E135" s="1">
         <v>0.94774922781193394</v>
@@ -8371,13 +8467,13 @@
     </row>
     <row r="136">
       <c r="B136" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C136" t="s">
         <v>177</v>
       </c>
       <c r="D136" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E136" s="1">
         <v>0.94774922781193394</v>
@@ -8386,13 +8482,13 @@
     </row>
     <row r="137">
       <c r="B137" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C137" t="s">
         <v>177</v>
       </c>
       <c r="D137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E137" s="1">
         <v>0.94774922781193394</v>
@@ -8419,7 +8515,7 @@
         <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D139" t="s">
         <v>290</v>
@@ -8539,7 +8635,7 @@
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D147" t="s">
         <v>298</v>
@@ -8641,13 +8737,13 @@
     </row>
     <row r="154">
       <c r="B154" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E154" s="1">
         <v>0.93333333333333324</v>
@@ -8656,13 +8752,13 @@
     </row>
     <row r="155">
       <c r="B155" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D155" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E155" s="1">
         <v>0.93333333333333324</v>
@@ -8686,13 +8782,13 @@
     </row>
     <row r="157">
       <c r="B157" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C157" t="s">
         <v>178</v>
       </c>
       <c r="D157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E157" s="1">
         <v>0.93333333333333324</v>
@@ -8701,13 +8797,13 @@
     </row>
     <row r="158">
       <c r="B158" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C158" t="s">
         <v>178</v>
       </c>
       <c r="D158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E158" s="1">
         <v>0.93333333333333324</v>
@@ -8866,10 +8962,10 @@
     </row>
     <row r="169">
       <c r="B169" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C169" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D169" t="s">
         <v>318</v>
@@ -8881,13 +8977,13 @@
     </row>
     <row r="170">
       <c r="B170" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C170" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D170" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E170" s="1">
         <v>0.92307692307692302</v>
@@ -8896,13 +8992,13 @@
     </row>
     <row r="171">
       <c r="B171" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C171" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D171" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E171" s="1">
         <v>0.92307692307692302</v>
@@ -8911,10 +9007,10 @@
     </row>
     <row r="172">
       <c r="B172" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D172" t="s">
         <v>319</v>
@@ -9001,7 +9097,7 @@
     </row>
     <row r="178">
       <c r="B178" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C178" t="s">
         <v>178</v>
@@ -9016,13 +9112,13 @@
     </row>
     <row r="179">
       <c r="B179" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C179" t="s">
         <v>178</v>
       </c>
       <c r="D179" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E179" s="1">
         <v>0.90909090909090906</v>
@@ -9031,13 +9127,13 @@
     </row>
     <row r="180">
       <c r="B180" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C180" t="s">
         <v>179</v>
       </c>
       <c r="D180" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E180" s="1">
         <v>0.90909090909090906</v>
@@ -9124,7 +9220,7 @@
         <v>137</v>
       </c>
       <c r="C186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D186" t="s">
         <v>331</v>
@@ -9271,13 +9367,13 @@
     </row>
     <row r="196">
       <c r="B196" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C196" t="s">
         <v>178</v>
       </c>
       <c r="D196" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E196" s="1">
         <v>0.88888888888888884</v>
@@ -9286,13 +9382,13 @@
     </row>
     <row r="197">
       <c r="B197" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="C197" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D197" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E197" s="1">
         <v>0.88888888888888884</v>
@@ -9316,13 +9412,13 @@
     </row>
     <row r="199">
       <c r="B199" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C199" t="s">
         <v>178</v>
       </c>
       <c r="D199" t="s">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="E199" s="1">
         <v>0.88888888888888884</v>
@@ -9331,13 +9427,13 @@
     </row>
     <row r="200">
       <c r="B200" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="C200" t="s">
         <v>179</v>
       </c>
       <c r="D200" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E200" s="1">
         <v>0.88888888888888884</v>
@@ -9346,13 +9442,13 @@
     </row>
     <row r="201">
       <c r="B201" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C201" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D201" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="E201" s="1">
         <v>0.88888888888888884</v>
@@ -9361,13 +9457,13 @@
     </row>
     <row r="202">
       <c r="B202" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C202" t="s">
         <v>178</v>
       </c>
       <c r="D202" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E202" s="1">
         <v>0.88888888888888884</v>
@@ -9376,13 +9472,13 @@
     </row>
     <row r="203">
       <c r="B203" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C203" t="s">
         <v>178</v>
       </c>
       <c r="D203" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="E203" s="1">
         <v>0.88888888888888884</v>
@@ -9451,13 +9547,13 @@
     </row>
     <row r="208">
       <c r="B208" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C208" t="s">
         <v>178</v>
       </c>
       <c r="D208" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E208" s="1">
         <v>0.88</v>
@@ -9469,7 +9565,7 @@
         <v>144</v>
       </c>
       <c r="C209" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D209" t="s">
         <v>351</v>
@@ -9481,13 +9577,13 @@
     </row>
     <row r="210">
       <c r="B210" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C210" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D210" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E210" s="1">
         <v>0.88</v>
@@ -9496,13 +9592,13 @@
     </row>
     <row r="211">
       <c r="B211" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C211" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D211" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E211" s="1">
         <v>0.88</v>
@@ -9601,13 +9697,13 @@
     </row>
     <row r="218">
       <c r="B218" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C218" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E218" s="1">
         <v>0.875</v>
@@ -9616,13 +9712,13 @@
     </row>
     <row r="219">
       <c r="B219" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C219" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D219" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E219" s="1">
         <v>0.875</v>
@@ -9631,7 +9727,7 @@
     </row>
     <row r="220">
       <c r="B220" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C220" t="s">
         <v>178</v>
@@ -9694,7 +9790,7 @@
         <v>153</v>
       </c>
       <c r="C224" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D224" t="s">
         <v>366</v>
@@ -9709,10 +9805,10 @@
         <v>28</v>
       </c>
       <c r="C225" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D225" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E225" s="1">
         <v>0.8648648648648648</v>
@@ -9724,10 +9820,10 @@
         <v>28</v>
       </c>
       <c r="C226" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D226" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E226" s="1">
         <v>0.8648648648648648</v>
@@ -9766,13 +9862,13 @@
     </row>
     <row r="229">
       <c r="B229" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C229" t="s">
         <v>178</v>
       </c>
       <c r="D229" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E229" s="1">
         <v>0.85714285714285721</v>
@@ -9781,13 +9877,13 @@
     </row>
     <row r="230">
       <c r="B230" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C230" t="s">
         <v>178</v>
       </c>
       <c r="D230" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E230" s="1">
         <v>0.85714285714285721</v>
@@ -9796,13 +9892,13 @@
     </row>
     <row r="231">
       <c r="B231" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C231" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D231" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E231" s="1">
         <v>0.85714285714285721</v>
@@ -9811,13 +9907,13 @@
     </row>
     <row r="232">
       <c r="B232" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C232" t="s">
         <v>179</v>
       </c>
       <c r="D232" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E232" s="1">
         <v>0.85714285714285721</v>
@@ -9826,13 +9922,13 @@
     </row>
     <row r="233">
       <c r="B233" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D233" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E233" s="1">
         <v>0.85714285714285721</v>
@@ -9841,13 +9937,13 @@
     </row>
     <row r="234">
       <c r="B234" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C234" t="s">
         <v>178</v>
       </c>
       <c r="D234" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E234" s="1">
         <v>0.85714285714285721</v>
@@ -9856,13 +9952,13 @@
     </row>
     <row r="235">
       <c r="B235" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="C235" t="s">
         <v>178</v>
       </c>
       <c r="D235" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E235" s="1">
         <v>0.85714285714285721</v>
@@ -9886,13 +9982,13 @@
     </row>
     <row r="237">
       <c r="B237" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C237" t="s">
         <v>178</v>
       </c>
       <c r="D237" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E237" s="1">
         <v>0.85714285714285721</v>
@@ -9901,13 +9997,13 @@
     </row>
     <row r="238">
       <c r="B238" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C238" t="s">
         <v>178</v>
       </c>
       <c r="D238" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E238" s="1">
         <v>0.85714285714285721</v>
@@ -9916,13 +10012,13 @@
     </row>
     <row r="239">
       <c r="B239" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C239" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D239" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E239" s="1">
         <v>0.85714285714285721</v>
@@ -9946,13 +10042,13 @@
     </row>
     <row r="241">
       <c r="B241" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C241" t="s">
         <v>178</v>
       </c>
       <c r="D241" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E241" s="1">
         <v>0.85714285714285721</v>
@@ -10186,13 +10282,13 @@
     </row>
     <row r="257">
       <c r="B257" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C257" t="s">
         <v>178</v>
       </c>
       <c r="D257" t="s">
-        <v>404</v>
+        <v>187</v>
       </c>
       <c r="E257" s="1">
         <v>0.83333333333333348</v>
@@ -10216,13 +10312,13 @@
     </row>
     <row r="259">
       <c r="B259" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C259" t="s">
         <v>178</v>
       </c>
       <c r="D259" t="s">
-        <v>187</v>
+        <v>399</v>
       </c>
       <c r="E259" s="1">
         <v>0.83333333333333348</v>
@@ -10231,13 +10327,13 @@
     </row>
     <row r="260">
       <c r="B260" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C260" t="s">
         <v>178</v>
       </c>
       <c r="D260" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E260" s="1">
         <v>0.83333333333333348</v>
@@ -10246,13 +10342,13 @@
     </row>
     <row r="261">
       <c r="B261" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C261" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D261" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E261" s="1">
         <v>0.83333333333333348</v>
@@ -10291,13 +10387,13 @@
     </row>
     <row r="264">
       <c r="B264" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C264" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D264" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E264" s="1">
         <v>0.83333333333333348</v>
@@ -10306,13 +10402,13 @@
     </row>
     <row r="265">
       <c r="B265" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C265" t="s">
         <v>178</v>
       </c>
       <c r="D265" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E265" s="1">
         <v>0.83333333333333348</v>
@@ -10339,7 +10435,7 @@
         <v>87</v>
       </c>
       <c r="C267" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D267" t="s">
         <v>409</v>
@@ -10351,13 +10447,13 @@
     </row>
     <row r="268">
       <c r="B268" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C268" t="s">
         <v>178</v>
       </c>
       <c r="D268" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E268" s="1">
         <v>0.82352941176470584</v>
@@ -10366,13 +10462,13 @@
     </row>
     <row r="269">
       <c r="B269" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C269" t="s">
         <v>178</v>
       </c>
       <c r="D269" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E269" s="1">
         <v>0.82352941176470584</v>
@@ -10381,13 +10477,13 @@
     </row>
     <row r="270">
       <c r="B270" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C270" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D270" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E270" s="1">
         <v>0.82352941176470584</v>
@@ -10411,13 +10507,13 @@
     </row>
     <row r="272">
       <c r="B272" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="C272" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D272" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E272" s="1">
         <v>0.82352941176470584</v>
@@ -10456,13 +10552,13 @@
     </row>
     <row r="275">
       <c r="B275" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C275" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D275" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E275" s="1">
         <v>0.82051282051282048</v>
@@ -10471,13 +10567,13 @@
     </row>
     <row r="276">
       <c r="B276" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C276" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D276" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E276" s="1">
         <v>0.82051282051282048</v>
@@ -10486,13 +10582,13 @@
     </row>
     <row r="277">
       <c r="B277" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C277" t="s">
         <v>179</v>
       </c>
       <c r="D277" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E277" s="1">
         <v>0.82051282051282048</v>
@@ -10501,13 +10597,13 @@
     </row>
     <row r="278">
       <c r="B278" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="C278" t="s">
         <v>179</v>
       </c>
       <c r="D278" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E278" s="1">
         <v>0.81818181818181812</v>
@@ -10516,13 +10612,13 @@
     </row>
     <row r="279">
       <c r="B279" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C279" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D279" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E279" s="1">
         <v>0.81818181818181812</v>
@@ -10531,13 +10627,13 @@
     </row>
     <row r="280">
       <c r="B280" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C280" t="s">
         <v>179</v>
       </c>
       <c r="D280" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E280" s="1">
         <v>0.81818181818181812</v>
@@ -10546,13 +10642,13 @@
     </row>
     <row r="281">
       <c r="B281" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="C281" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D281" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E281" s="1">
         <v>0.81818181818181812</v>
@@ -10561,13 +10657,13 @@
     </row>
     <row r="282">
       <c r="B282" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C282" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D282" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E282" s="1">
         <v>0.81818181818181812</v>
@@ -10576,13 +10672,13 @@
     </row>
     <row r="283">
       <c r="B283" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C283" t="s">
         <v>178</v>
       </c>
       <c r="D283" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E283" s="1">
         <v>0.81818181818181812</v>
@@ -10621,13 +10717,13 @@
     </row>
     <row r="286">
       <c r="B286" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C286" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D286" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E286" s="1">
         <v>0.81481481481481499</v>
@@ -10636,7 +10732,7 @@
     </row>
     <row r="287">
       <c r="B287" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C287" t="s">
         <v>178</v>
@@ -10651,7 +10747,7 @@
     </row>
     <row r="288">
       <c r="B288" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C288" t="s">
         <v>178</v>
@@ -10666,13 +10762,13 @@
     </row>
     <row r="289">
       <c r="B289" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C289" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D289" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E289" s="1">
         <v>0.81481481481481499</v>
@@ -10681,7 +10777,7 @@
     </row>
     <row r="290">
       <c r="B290" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C290" t="s">
         <v>177</v>
@@ -10696,7 +10792,7 @@
     </row>
     <row r="291">
       <c r="B291" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="C291" t="s">
         <v>177</v>
@@ -10741,7 +10837,7 @@
     </row>
     <row r="294">
       <c r="B294" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C294" t="s">
         <v>177</v>
@@ -10756,7 +10852,7 @@
     </row>
     <row r="295">
       <c r="B295" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C295" t="s">
         <v>177</v>
@@ -10789,7 +10885,7 @@
         <v>173</v>
       </c>
       <c r="C297" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D297" t="s">
         <v>433</v>
@@ -10966,7 +11062,7 @@
     </row>
     <row r="309">
       <c r="B309" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C309" t="s">
         <v>177</v>
@@ -10981,7 +11077,7 @@
     </row>
     <row r="310">
       <c r="B310" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C310" t="s">
         <v>177</v>
@@ -11476,10 +11572,10 @@
     </row>
     <row r="343">
       <c r="B343" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C343" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D343" t="s">
         <v>473</v>
@@ -11491,7 +11587,7 @@
     </row>
     <row r="344">
       <c r="B344" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C344" t="s">
         <v>178</v>
@@ -11506,10 +11602,10 @@
     </row>
     <row r="345">
       <c r="B345" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C345" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D345" t="s">
         <v>473</v>
@@ -11521,7 +11617,7 @@
     </row>
     <row r="346">
       <c r="B346" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C346" t="s">
         <v>179</v>
@@ -11536,7 +11632,7 @@
     </row>
     <row r="347">
       <c r="B347" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="C347" t="s">
         <v>179</v>
@@ -11551,7 +11647,7 @@
     </row>
     <row r="348">
       <c r="B348" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="C348" t="s">
         <v>179</v>
@@ -11566,7 +11662,7 @@
     </row>
     <row r="349">
       <c r="B349" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C349" t="s">
         <v>179</v>
@@ -11581,7 +11677,7 @@
     </row>
     <row r="350">
       <c r="B350" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C350" t="s">
         <v>178</v>
@@ -11596,10 +11692,10 @@
     </row>
     <row r="351">
       <c r="B351" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="C351" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D351" t="s">
         <v>473</v>
@@ -11611,10 +11707,10 @@
     </row>
     <row r="352">
       <c r="B352" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C352" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D352" t="s">
         <v>473</v>
@@ -11626,7 +11722,7 @@
     </row>
     <row r="353">
       <c r="B353" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C353" t="s">
         <v>178</v>
@@ -11641,10 +11737,10 @@
     </row>
     <row r="354">
       <c r="B354" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="C354" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D354" t="s">
         <v>473</v>
@@ -11656,7 +11752,7 @@
     </row>
     <row r="355">
       <c r="B355" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C355" t="s">
         <v>178</v>
@@ -11671,7 +11767,7 @@
     </row>
     <row r="356">
       <c r="B356" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C356" t="s">
         <v>179</v>
@@ -11686,10 +11782,10 @@
     </row>
     <row r="357">
       <c r="B357" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="C357" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D357" t="s">
         <v>473</v>
@@ -11701,7 +11797,7 @@
     </row>
     <row r="358">
       <c r="B358" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C358" t="s">
         <v>179</v>
@@ -11716,13 +11812,13 @@
     </row>
     <row r="359">
       <c r="B359" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C359" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D359" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E359" s="1">
         <v>0</v>
@@ -11731,13 +11827,13 @@
     </row>
     <row r="360">
       <c r="B360" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C360" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D360" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E360" s="1">
         <v>0</v>
@@ -11746,10 +11842,10 @@
     </row>
     <row r="361">
       <c r="B361" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="C361" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D361" t="s">
         <v>473</v>
@@ -11761,10 +11857,10 @@
     </row>
     <row r="362">
       <c r="B362" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C362" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D362" t="s">
         <v>473</v>
@@ -11776,13 +11872,13 @@
     </row>
     <row r="363">
       <c r="B363" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C363" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D363" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E363" s="1">
         <v>0</v>
@@ -11791,7 +11887,7 @@
     </row>
     <row r="364">
       <c r="B364" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C364" t="s">
         <v>179</v>
@@ -11806,10 +11902,10 @@
     </row>
     <row r="365">
       <c r="B365" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C365" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D365" t="s">
         <v>473</v>
@@ -11821,7 +11917,7 @@
     </row>
     <row r="366">
       <c r="B366" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="C366" t="s">
         <v>179</v>
@@ -11836,7 +11932,7 @@
     </row>
     <row r="367">
       <c r="B367" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="C367" t="s">
         <v>179</v>
@@ -11851,7 +11947,7 @@
     </row>
     <row r="368">
       <c r="B368" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C368" t="s">
         <v>179</v>
@@ -11866,10 +11962,10 @@
     </row>
     <row r="369">
       <c r="B369" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C369" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D369" t="s">
         <v>473</v>
@@ -11881,7 +11977,7 @@
     </row>
     <row r="370">
       <c r="B370" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="C370" t="s">
         <v>179</v>
@@ -11896,13 +11992,13 @@
     </row>
     <row r="371">
       <c r="B371" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C371" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D371" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E371" s="1">
         <v>0</v>
@@ -11911,10 +12007,10 @@
     </row>
     <row r="372">
       <c r="B372" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C372" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D372" t="s">
         <v>473</v>
@@ -11926,7 +12022,7 @@
     </row>
     <row r="373">
       <c r="B373" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C373" t="s">
         <v>179</v>
@@ -11941,10 +12037,10 @@
     </row>
     <row r="374">
       <c r="B374" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C374" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D374" t="s">
         <v>473</v>
@@ -11956,10 +12052,10 @@
     </row>
     <row r="375">
       <c r="B375" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="C375" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D375" t="s">
         <v>473</v>
@@ -11971,7 +12067,7 @@
     </row>
     <row r="376">
       <c r="B376" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="C376" t="s">
         <v>179</v>
@@ -11986,10 +12082,10 @@
     </row>
     <row r="377">
       <c r="B377" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C377" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D377" t="s">
         <v>473</v>
@@ -12001,13 +12097,13 @@
     </row>
     <row r="378">
       <c r="B378" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C378" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D378" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E378" s="1">
         <v>0</v>
@@ -12016,10 +12112,10 @@
     </row>
     <row r="379">
       <c r="B379" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C379" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D379" t="s">
         <v>473</v>
@@ -12031,7 +12127,7 @@
     </row>
     <row r="380">
       <c r="B380" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="C380" t="s">
         <v>179</v>
@@ -12046,10 +12142,10 @@
     </row>
     <row r="381">
       <c r="B381" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="C381" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D381" t="s">
         <v>473</v>
@@ -12061,13 +12157,13 @@
     </row>
     <row r="382">
       <c r="B382" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="C382" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D382" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E382" s="1">
         <v>0</v>
@@ -12076,10 +12172,10 @@
     </row>
     <row r="383">
       <c r="B383" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="C383" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D383" t="s">
         <v>473</v>
@@ -12091,10 +12187,10 @@
     </row>
     <row r="384">
       <c r="B384" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C384" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D384" t="s">
         <v>473</v>
@@ -12106,7 +12202,7 @@
     </row>
     <row r="385">
       <c r="B385" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C385" t="s">
         <v>179</v>
@@ -12121,10 +12217,10 @@
     </row>
     <row r="386">
       <c r="B386" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C386" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D386" t="s">
         <v>473</v>
@@ -12136,13 +12232,13 @@
     </row>
     <row r="387">
       <c r="B387" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C387" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D387" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E387" s="1">
         <v>0</v>
@@ -12151,10 +12247,10 @@
     </row>
     <row r="388">
       <c r="B388" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C388" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D388" t="s">
         <v>473</v>
@@ -12166,7 +12262,7 @@
     </row>
     <row r="389">
       <c r="B389" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C389" t="s">
         <v>179</v>
@@ -12181,7 +12277,7 @@
     </row>
     <row r="390">
       <c r="B390" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="C390" t="s">
         <v>179</v>
@@ -12196,7 +12292,7 @@
     </row>
     <row r="391">
       <c r="B391" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="C391" t="s">
         <v>179</v>
@@ -12211,7 +12307,7 @@
     </row>
     <row r="392">
       <c r="B392" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="C392" t="s">
         <v>179</v>
@@ -12226,7 +12322,7 @@
     </row>
     <row r="393">
       <c r="B393" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C393" t="s">
         <v>179</v>
@@ -12241,7 +12337,7 @@
     </row>
     <row r="394">
       <c r="B394" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C394" t="s">
         <v>179</v>
@@ -12256,10 +12352,10 @@
     </row>
     <row r="395">
       <c r="B395" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="C395" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D395" t="s">
         <v>473</v>
@@ -12271,13 +12367,13 @@
     </row>
     <row r="396">
       <c r="B396" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C396" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D396" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E396" s="1">
         <v>0</v>
@@ -12286,7 +12382,7 @@
     </row>
     <row r="397">
       <c r="B397" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="C397" t="s">
         <v>179</v>
@@ -12301,7 +12397,7 @@
     </row>
     <row r="398">
       <c r="B398" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C398" t="s">
         <v>179</v>
@@ -12316,10 +12412,10 @@
     </row>
     <row r="399">
       <c r="B399" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C399" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D399" t="s">
         <v>473</v>
@@ -12331,13 +12427,13 @@
     </row>
     <row r="400">
       <c r="B400" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C400" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D400" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E400" s="1">
         <v>0</v>
@@ -12346,10 +12442,10 @@
     </row>
     <row r="401">
       <c r="B401" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C401" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D401" t="s">
         <v>473</v>
@@ -12361,13 +12457,13 @@
     </row>
     <row r="402">
       <c r="B402" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C402" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D402" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E402" s="1">
         <v>0</v>
@@ -12376,10 +12472,10 @@
     </row>
     <row r="403">
       <c r="B403" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C403" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D403" t="s">
         <v>473</v>
@@ -12391,10 +12487,10 @@
     </row>
     <row r="404">
       <c r="B404" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C404" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D404" t="s">
         <v>473</v>
@@ -12406,7 +12502,7 @@
     </row>
     <row r="405">
       <c r="B405" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="C405" t="s">
         <v>179</v>
@@ -12421,7 +12517,7 @@
     </row>
     <row r="406">
       <c r="B406" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C406" t="s">
         <v>179</v>
@@ -12436,10 +12532,10 @@
     </row>
     <row r="407">
       <c r="B407" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C407" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D407" t="s">
         <v>473</v>
@@ -12451,7 +12547,7 @@
     </row>
     <row r="408">
       <c r="B408" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C408" t="s">
         <v>178</v>
@@ -12466,7 +12562,7 @@
     </row>
     <row r="409">
       <c r="B409" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C409" t="s">
         <v>179</v>
@@ -12481,7 +12577,7 @@
     </row>
     <row r="410">
       <c r="B410" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C410" t="s">
         <v>179</v>
@@ -12496,13 +12592,13 @@
     </row>
     <row r="411">
       <c r="B411" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C411" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D411" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E411" s="1">
         <v>0</v>
@@ -12511,7 +12607,7 @@
     </row>
     <row r="412">
       <c r="B412" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C412" t="s">
         <v>178</v>
@@ -12526,7 +12622,7 @@
     </row>
     <row r="413">
       <c r="B413" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C413" t="s">
         <v>179</v>
@@ -12541,13 +12637,13 @@
     </row>
     <row r="414">
       <c r="B414" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C414" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D414" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E414" s="1">
         <v>0</v>
@@ -12556,13 +12652,13 @@
     </row>
     <row r="415">
       <c r="B415" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="C415" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D415" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E415" s="1">
         <v>0</v>
@@ -12571,13 +12667,13 @@
     </row>
     <row r="416">
       <c r="B416" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="C416" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D416" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E416" s="1">
         <v>0</v>
@@ -12586,10 +12682,10 @@
     </row>
     <row r="417">
       <c r="B417" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="C417" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D417" t="s">
         <v>473</v>
@@ -12601,10 +12697,10 @@
     </row>
     <row r="418">
       <c r="B418" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="C418" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D418" t="s">
         <v>473</v>
@@ -12616,7 +12712,7 @@
     </row>
     <row r="419">
       <c r="B419" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C419" t="s">
         <v>179</v>
@@ -12631,7 +12727,7 @@
     </row>
     <row r="420">
       <c r="B420" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C420" t="s">
         <v>178</v>
@@ -12646,10 +12742,10 @@
     </row>
     <row r="421">
       <c r="B421" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C421" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D421" t="s">
         <v>473</v>
@@ -12661,7 +12757,7 @@
     </row>
     <row r="422">
       <c r="B422" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C422" t="s">
         <v>178</v>
@@ -12676,7 +12772,7 @@
     </row>
     <row r="423">
       <c r="B423" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="C423" t="s">
         <v>179</v>
@@ -12691,13 +12787,13 @@
     </row>
     <row r="424">
       <c r="B424" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C424" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D424" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E424" s="1">
         <v>0</v>
@@ -12706,7 +12802,7 @@
     </row>
     <row r="425">
       <c r="B425" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="C425" t="s">
         <v>179</v>
@@ -12721,10 +12817,10 @@
     </row>
     <row r="426">
       <c r="B426" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C426" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D426" t="s">
         <v>473</v>
@@ -12736,7 +12832,7 @@
     </row>
     <row r="427">
       <c r="B427" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="C427" t="s">
         <v>179</v>
@@ -12751,10 +12847,10 @@
     </row>
     <row r="428">
       <c r="B428" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C428" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D428" t="s">
         <v>473</v>
@@ -12766,13 +12862,13 @@
     </row>
     <row r="429">
       <c r="B429" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C429" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D429" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E429" s="1">
         <v>0</v>
@@ -12781,7 +12877,7 @@
     </row>
     <row r="430">
       <c r="B430" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C430" t="s">
         <v>179</v>
@@ -12796,7 +12892,7 @@
     </row>
     <row r="431">
       <c r="B431" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C431" t="s">
         <v>179</v>
@@ -12811,10 +12907,10 @@
     </row>
     <row r="432">
       <c r="B432" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C432" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D432" t="s">
         <v>473</v>
@@ -12826,7 +12922,7 @@
     </row>
     <row r="433">
       <c r="B433" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C433" t="s">
         <v>179</v>
@@ -12841,10 +12937,10 @@
     </row>
     <row r="434">
       <c r="B434" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C434" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D434" t="s">
         <v>473</v>
@@ -12856,7 +12952,7 @@
     </row>
     <row r="435">
       <c r="B435" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C435" t="s">
         <v>178</v>
@@ -12871,7 +12967,7 @@
     </row>
     <row r="436">
       <c r="B436" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C436" t="s">
         <v>178</v>
@@ -12886,13 +12982,13 @@
     </row>
     <row r="437">
       <c r="B437" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="C437" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D437" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E437" s="1">
         <v>0</v>
@@ -12901,10 +12997,10 @@
     </row>
     <row r="438">
       <c r="B438" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C438" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D438" t="s">
         <v>473</v>
@@ -12916,13 +13012,13 @@
     </row>
     <row r="439">
       <c r="B439" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C439" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D439" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E439" s="1">
         <v>0</v>
@@ -12931,13 +13027,13 @@
     </row>
     <row r="440">
       <c r="B440" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C440" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D440" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E440" s="1">
         <v>0</v>
@@ -12946,10 +13042,10 @@
     </row>
     <row r="441">
       <c r="B441" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C441" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D441" t="s">
         <v>473</v>
@@ -12961,7 +13057,7 @@
     </row>
     <row r="442">
       <c r="B442" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C442" t="s">
         <v>179</v>
@@ -12976,13 +13072,13 @@
     </row>
     <row r="443">
       <c r="B443" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C443" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D443" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E443" s="1">
         <v>0</v>
@@ -12991,7 +13087,7 @@
     </row>
     <row r="444">
       <c r="B444" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C444" t="s">
         <v>179</v>
@@ -13006,10 +13102,10 @@
     </row>
     <row r="445">
       <c r="B445" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C445" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D445" t="s">
         <v>473</v>
@@ -13021,13 +13117,13 @@
     </row>
     <row r="446">
       <c r="B446" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C446" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D446" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E446" s="1">
         <v>0</v>
@@ -13036,7 +13132,7 @@
     </row>
     <row r="447">
       <c r="B447" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C447" t="s">
         <v>179</v>
@@ -13051,7 +13147,7 @@
     </row>
     <row r="448">
       <c r="B448" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="C448" t="s">
         <v>179</v>
@@ -13066,7 +13162,7 @@
     </row>
     <row r="449">
       <c r="B449" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C449" t="s">
         <v>179</v>
@@ -13081,7 +13177,7 @@
     </row>
     <row r="450">
       <c r="B450" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="C450" t="s">
         <v>179</v>
@@ -13096,10 +13192,10 @@
     </row>
     <row r="451">
       <c r="B451" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="C451" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D451" t="s">
         <v>473</v>
@@ -13111,10 +13207,10 @@
     </row>
     <row r="452">
       <c r="B452" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C452" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D452" t="s">
         <v>473</v>
@@ -13126,7 +13222,7 @@
     </row>
     <row r="453">
       <c r="B453" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C453" t="s">
         <v>179</v>
@@ -13141,10 +13237,10 @@
     </row>
     <row r="454">
       <c r="B454" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C454" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D454" t="s">
         <v>473</v>
@@ -13156,7 +13252,7 @@
     </row>
     <row r="455">
       <c r="B455" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C455" t="s">
         <v>179</v>
@@ -13171,10 +13267,10 @@
     </row>
     <row r="456">
       <c r="B456" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C456" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D456" t="s">
         <v>473</v>
@@ -13186,10 +13282,10 @@
     </row>
     <row r="457">
       <c r="B457" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C457" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D457" t="s">
         <v>473</v>
@@ -13201,10 +13297,10 @@
     </row>
     <row r="458">
       <c r="B458" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C458" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D458" t="s">
         <v>473</v>
@@ -13216,13 +13312,13 @@
     </row>
     <row r="459">
       <c r="B459" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C459" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D459" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E459" s="1">
         <v>0</v>
@@ -13231,10 +13327,10 @@
     </row>
     <row r="460">
       <c r="B460" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C460" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D460" t="s">
         <v>473</v>
@@ -13246,13 +13342,13 @@
     </row>
     <row r="461">
       <c r="B461" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C461" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D461" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E461" s="1">
         <v>0</v>
@@ -13261,7 +13357,7 @@
     </row>
     <row r="462">
       <c r="B462" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C462" t="s">
         <v>179</v>
@@ -13276,7 +13372,7 @@
     </row>
     <row r="463">
       <c r="B463" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C463" t="s">
         <v>179</v>
@@ -13291,7 +13387,7 @@
     </row>
     <row r="464">
       <c r="B464" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C464" t="s">
         <v>179</v>
@@ -13306,13 +13402,13 @@
     </row>
     <row r="465">
       <c r="B465" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C465" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D465" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E465" s="1">
         <v>0</v>
@@ -13321,10 +13417,10 @@
     </row>
     <row r="466">
       <c r="B466" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C466" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D466" t="s">
         <v>473</v>
@@ -13336,13 +13432,13 @@
     </row>
     <row r="467">
       <c r="B467" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C467" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D467" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E467" s="1">
         <v>0</v>
@@ -13351,13 +13447,13 @@
     </row>
     <row r="468">
       <c r="B468" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C468" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D468" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E468" s="1">
         <v>0</v>
@@ -13366,7 +13462,7 @@
     </row>
     <row r="469">
       <c r="B469" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="C469" t="s">
         <v>179</v>
@@ -13381,13 +13477,13 @@
     </row>
     <row r="470">
       <c r="B470" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="C470" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D470" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E470" s="1">
         <v>0</v>
@@ -13396,13 +13492,13 @@
     </row>
     <row r="471">
       <c r="B471" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C471" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D471" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E471" s="1">
         <v>0</v>
@@ -13411,10 +13507,10 @@
     </row>
     <row r="472">
       <c r="B472" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C472" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D472" t="s">
         <v>473</v>
@@ -13426,7 +13522,7 @@
     </row>
     <row r="473">
       <c r="B473" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C473" t="s">
         <v>179</v>
@@ -13441,7 +13537,7 @@
     </row>
     <row r="474">
       <c r="B474" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="C474" t="s">
         <v>179</v>
@@ -13456,7 +13552,7 @@
     </row>
     <row r="475">
       <c r="B475" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="C475" t="s">
         <v>179</v>
@@ -13471,13 +13567,13 @@
     </row>
     <row r="476">
       <c r="B476" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="C476" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D476" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E476" s="1">
         <v>0</v>
@@ -13486,10 +13582,10 @@
     </row>
     <row r="477">
       <c r="B477" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C477" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D477" t="s">
         <v>473</v>
@@ -13501,13 +13597,13 @@
     </row>
     <row r="478">
       <c r="B478" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C478" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D478" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E478" s="1">
         <v>0</v>
